--- a/public/upload/customer.xlsx
+++ b/public/upload/customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C073E6-2765-49BE-B176-54D1D536A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A4903D-9702-404A-95F8-826F56814B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1701">
   <si>
     <t>Customer Type</t>
   </si>
@@ -5120,6 +5120,9 @@
   </si>
   <si>
     <t>Secretary Business</t>
+  </si>
+  <si>
+    <t>Umm Al-Quwain</t>
   </si>
 </sst>
 </file>
@@ -5546,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5947,7 +5950,7 @@
         <v>1339</v>
       </c>
       <c r="AD3" t="s">
-        <v>1004</v>
+        <v>1700</v>
       </c>
       <c r="AE3">
         <v>376475</v>
@@ -5974,7 +5977,7 @@
         <v>1526</v>
       </c>
       <c r="AM3" t="s">
-        <v>1004</v>
+        <v>1700</v>
       </c>
       <c r="AN3">
         <v>878622</v>
